--- a/data/trans_orig/EJER_INT_TIEMPO-Edad-trans_orig.xlsx
+++ b/data/trans_orig/EJER_INT_TIEMPO-Edad-trans_orig.xlsx
@@ -534,7 +534,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Nº medio de minutos/día en los que se realiza actividad física intensa</t>
+          <t>Nº medio de minutos/día en los que se realiza actividad física intensa (tasa de respuesta: 90,82%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_orig/EJER_INT_TIEMPO-Edad-trans_orig.xlsx
+++ b/data/trans_orig/EJER_INT_TIEMPO-Edad-trans_orig.xlsx
@@ -656,7 +656,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>73,26</t>
+          <t>81,94</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -676,7 +676,7 @@
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>55,9</t>
+          <t>52,58</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
@@ -696,7 +696,7 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>64,86</t>
+          <t>67,01</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
@@ -724,12 +724,12 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>63,09; 83,56</t>
+          <t>68,28; 97,41</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>21,69; 37,46</t>
+          <t>21,2; 37,19</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -739,17 +739,17 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>45,66; 65,43</t>
+          <t>46,27; 66,53</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>45,09; 66,24</t>
+          <t>40,23; 68,96</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>5,04; 14,67</t>
+          <t>5,36; 15,12</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -759,17 +759,17 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>15,77; 30,47</t>
+          <t>15,5; 30,39</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>57,94; 72,67</t>
+          <t>57,5; 79,28</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>14,97; 25,14</t>
+          <t>15,84; 26,27</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
@@ -779,7 +779,7 @@
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>32,56; 47,08</t>
+          <t>32,53; 46,08</t>
         </is>
       </c>
     </row>
@@ -796,7 +796,7 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>71,27</t>
+          <t>68,89</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
@@ -816,7 +816,7 @@
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>47,87</t>
+          <t>53,53</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
@@ -836,7 +836,7 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>58,9</t>
+          <t>61,2</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
@@ -864,12 +864,12 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>61,83; 82,39</t>
+          <t>58,67; 78,77</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>16,93; 28,82</t>
+          <t>17,11; 29,07</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
@@ -879,17 +879,17 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>25,88; 40,53</t>
+          <t>25,78; 41,54</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>38,78; 62,72</t>
+          <t>42,48; 72,38</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>2,8; 10,24</t>
+          <t>2,78; 10,5</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
@@ -899,17 +899,17 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>14,77; 26,78</t>
+          <t>14,59; 26,42</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>52,46; 67,28</t>
+          <t>53,44; 70,14</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>8,46; 17,59</t>
+          <t>8,21; 17,04</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
@@ -919,7 +919,7 @@
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>21,25; 31,29</t>
+          <t>21,31; 30,55</t>
         </is>
       </c>
     </row>
@@ -936,7 +936,7 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>62,08</t>
+          <t>64,08</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
@@ -956,7 +956,7 @@
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>43,94</t>
+          <t>41,96</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
@@ -976,7 +976,7 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>52,64</t>
+          <t>53,11</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
@@ -1004,12 +1004,12 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>53,29; 76,24</t>
+          <t>52,89; 80,09</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>15,85; 24,56</t>
+          <t>15,85; 24,74</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
@@ -1019,17 +1019,17 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>19,39; 39,67</t>
+          <t>19,28; 37,65</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>34,75; 55,14</t>
+          <t>34,54; 51,84</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>5,39; 9,73</t>
+          <t>5,59; 9,92</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
@@ -1039,17 +1039,17 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>7,29; 13,18</t>
+          <t>7,21; 13,37</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>45,72; 60,79</t>
+          <t>45,91; 61,72</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>11,23; 16,4</t>
+          <t>11,24; 16,35</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
@@ -1059,7 +1059,7 @@
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>14,6; 26,12</t>
+          <t>14,48; 25,49</t>
         </is>
       </c>
     </row>
@@ -1076,7 +1076,7 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>50,01</t>
+          <t>53,33</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
@@ -1096,7 +1096,7 @@
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>31,92</t>
+          <t>29,02</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
@@ -1116,7 +1116,7 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>40,83</t>
+          <t>41,18</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
@@ -1144,12 +1144,12 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>42,1; 58,01</t>
+          <t>43,76; 65,72</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>2,76; 14,55</t>
+          <t>2,64; 14,25</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -1159,17 +1159,17 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>12,18; 20,17</t>
+          <t>11,94; 20,82</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>26,63; 38,6</t>
+          <t>23,45; 36,36</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>2,71; 5,16</t>
+          <t>2,75; 4,96</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1179,17 +1179,17 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>5,65; 11,83</t>
+          <t>5,72; 11,71</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>36,28; 46,52</t>
+          <t>35,68; 48,28</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>3,03; 8,97</t>
+          <t>2,98; 9,12</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
@@ -1199,7 +1199,7 @@
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>9,64; 15,41</t>
+          <t>9,68; 14,79</t>
         </is>
       </c>
     </row>
@@ -1216,7 +1216,7 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>39,56</t>
+          <t>41,16</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
@@ -1236,7 +1236,7 @@
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>28,07</t>
+          <t>30,07</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
@@ -1256,7 +1256,7 @@
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>33,29</t>
+          <t>35,39</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
@@ -1284,12 +1284,12 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>32,03; 49,2</t>
+          <t>33,87; 51,13</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>4,02; 8,67</t>
+          <t>3,91; 8,79</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
@@ -1299,17 +1299,17 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>14,51; 29,62</t>
+          <t>14,19; 29,75</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>22,58; 33,96</t>
+          <t>23,87; 37,67</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>1,63; 3,96</t>
+          <t>1,62; 4,02</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
@@ -1319,17 +1319,17 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>3,72; 10,61</t>
+          <t>3,69; 10,79</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>28,89; 38,4</t>
+          <t>30,27; 41,71</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>3,11; 5,81</t>
+          <t>3,16; 5,83</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
@@ -1339,7 +1339,7 @@
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>9,35; 16,92</t>
+          <t>9,3; 17,07</t>
         </is>
       </c>
     </row>
@@ -1356,7 +1356,7 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>27,13</t>
+          <t>26,5</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
@@ -1376,7 +1376,7 @@
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>10,62</t>
+          <t>9,56</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
@@ -1396,7 +1396,7 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>18,36</t>
+          <t>17,39</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
@@ -1424,12 +1424,12 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>21,87; 35,29</t>
+          <t>20,55; 33,97</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>2,3; 5,92</t>
+          <t>2,37; 6,26</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
@@ -1439,17 +1439,17 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>4,87; 19,38</t>
+          <t>4,9; 19,91</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>7,77; 14,87</t>
+          <t>6,78; 13,91</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>0,05; 0,95</t>
+          <t>0,03; 0,95</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
@@ -1459,17 +1459,17 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>1,73; 7,37</t>
+          <t>1,85; 7,17</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>14,92; 22,44</t>
+          <t>14,57; 21,35</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>0,55; 2,51</t>
+          <t>0,52; 2,45</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
@@ -1479,7 +1479,7 @@
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>3,92; 11,65</t>
+          <t>3,99; 10,99</t>
         </is>
       </c>
     </row>
@@ -1496,7 +1496,7 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>8,49</t>
+          <t>8,02</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
@@ -1516,7 +1516,7 @@
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>5,2</t>
+          <t>6,97</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
@@ -1536,7 +1536,7 @@
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>6,47</t>
+          <t>7,37</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
@@ -1564,12 +1564,12 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>5,51; 13,24</t>
+          <t>5,17; 12,26</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0,25; 2,22</t>
+          <t>0,24; 1,98</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
@@ -1579,17 +1579,17 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>1,27; 8,05</t>
+          <t>1,3; 7,9</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>3,33; 7,94</t>
+          <t>4,35; 10,92</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,31</t>
+          <t>0,0; 0,32</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
@@ -1599,17 +1599,17 @@
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>0,15; 3,05</t>
+          <t>0,16; 3,06</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>4,71; 9,03</t>
+          <t>5,34; 10,23</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>0,15; 0,86</t>
+          <t>0,15; 0,85</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
@@ -1619,7 +1619,7 @@
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>1,12; 4,39</t>
+          <t>1,05; 4,04</t>
         </is>
       </c>
     </row>
@@ -1636,7 +1636,7 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>43,07</t>
+          <t>49,26</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
@@ -1656,7 +1656,7 @@
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>26,46</t>
+          <t>29,85</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
@@ -1676,7 +1676,7 @@
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>34,11</t>
+          <t>39,09</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
@@ -1704,12 +1704,12 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>40,1; 46,45</t>
+          <t>45,22; 53,83</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>8,89; 14,89</t>
+          <t>8,58; 14,88</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
@@ -1719,17 +1719,17 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>21,15; 27,0</t>
+          <t>20,9; 27,09</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>24,04; 29,26</t>
+          <t>26,9; 33,24</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>2,77; 4,8</t>
+          <t>2,76; 4,7</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
@@ -1739,17 +1739,17 @@
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>8,62; 11,77</t>
+          <t>8,62; 11,83</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>32,14; 36,04</t>
+          <t>36,61; 41,91</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>6,42; 9,27</t>
+          <t>6,51; 9,29</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
@@ -1759,7 +1759,7 @@
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>14,86; 18,32</t>
+          <t>14,8; 18,22</t>
         </is>
       </c>
     </row>

--- a/data/trans_orig/EJER_INT_TIEMPO-Edad-trans_orig.xlsx
+++ b/data/trans_orig/EJER_INT_TIEMPO-Edad-trans_orig.xlsx
@@ -568,62 +568,62 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>Barcelona</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
           <t>País Vasco</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>Andalucia</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Barcelona</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>Barcelona</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>País Vasco</t>
-        </is>
-      </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="I2" s="3" t="inlineStr">
-        <is>
-          <t>C.Valenciana</t>
-        </is>
-      </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>Barcelona</t>
-        </is>
-      </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>País Vasco</t>
-        </is>
-      </c>
-      <c r="L2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="M2" s="3" t="inlineStr">
-        <is>
-          <t>C.Valenciana</t>
-        </is>
-      </c>
-      <c r="N2" s="3" t="inlineStr">
-        <is>
-          <t>Barcelona</t>
         </is>
       </c>
     </row>
@@ -656,62 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>31,25</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>55,65</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>55,21</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
           <t>81,94</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>29,14</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>55,21</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>55,65</t>
-        </is>
-      </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
+          <t>9,56</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>22,05</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>30,97</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
           <t>52,58</t>
         </is>
       </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>8,88</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>30,97</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>22,05</t>
-        </is>
-      </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
+          <t>20,91</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>39,11</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>43,18</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
           <t>67,01</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>20,26</t>
-        </is>
-      </c>
-      <c r="M4" s="2" t="inlineStr">
-        <is>
-          <t>43,18</t>
-        </is>
-      </c>
-      <c r="N4" s="2" t="inlineStr">
-        <is>
-          <t>39,11</t>
         </is>
       </c>
     </row>
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
+          <t>23,52; 39,24</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>46,27; 66,53</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>47,66; 64,4</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
           <t>68,28; 97,41</t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>21,2; 37,19</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>47,66; 64,4</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>46,27; 66,53</t>
-        </is>
-      </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
+          <t>5,63; 15,95</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>15,5; 30,39</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>24,66; 40,78</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
           <t>40,23; 68,96</t>
         </is>
       </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>5,36; 15,12</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>24,66; 40,78</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>15,5; 30,39</t>
-        </is>
-      </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
+          <t>16,55; 26,21</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>32,53; 46,08</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>37,92; 49,06</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
           <t>57,5; 79,28</t>
-        </is>
-      </c>
-      <c r="L5" s="2" t="inlineStr">
-        <is>
-          <t>15,84; 26,27</t>
-        </is>
-      </c>
-      <c r="M5" s="2" t="inlineStr">
-        <is>
-          <t>37,92; 49,06</t>
-        </is>
-      </c>
-      <c r="N5" s="2" t="inlineStr">
-        <is>
-          <t>32,53; 46,08</t>
         </is>
       </c>
     </row>
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>21,74</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>32,01</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>52,49</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
           <t>68,89</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>22,59</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>52,49</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>32,01</t>
-        </is>
-      </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
+          <t>7,93</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>19,2</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>27,39</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
           <t>53,53</t>
         </is>
       </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>6,54</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>27,39</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>19,2</t>
-        </is>
-      </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
+          <t>14,53</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>25,46</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>39,13</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
           <t>61,2</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>13,31</t>
-        </is>
-      </c>
-      <c r="M6" s="2" t="inlineStr">
-        <is>
-          <t>39,13</t>
-        </is>
-      </c>
-      <c r="N6" s="2" t="inlineStr">
-        <is>
-          <t>25,46</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
+          <t>16,67; 28,25</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>25,78; 41,54</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>44,39; 63,42</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
           <t>58,67; 78,77</t>
         </is>
       </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>17,11; 29,07</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>44,39; 63,42</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>25,78; 41,54</t>
-        </is>
-      </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
+          <t>5,19; 11,7</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>14,59; 26,42</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>21,69; 36,67</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
           <t>42,48; 72,38</t>
         </is>
       </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>2,78; 10,5</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>21,69; 36,67</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>14,59; 26,42</t>
-        </is>
-      </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
+          <t>11,49; 17,96</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>21,31; 30,55</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>34,06; 45,77</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
           <t>53,44; 70,14</t>
-        </is>
-      </c>
-      <c r="L7" s="2" t="inlineStr">
-        <is>
-          <t>8,21; 17,04</t>
-        </is>
-      </c>
-      <c r="M7" s="2" t="inlineStr">
-        <is>
-          <t>34,06; 45,77</t>
-        </is>
-      </c>
-      <c r="N7" s="2" t="inlineStr">
-        <is>
-          <t>21,31; 30,55</t>
         </is>
       </c>
     </row>
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>18,74</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>25,72</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>39,47</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
           <t>64,08</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>19,82</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>39,47</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>25,72</t>
-        </is>
-      </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
+          <t>6,92</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>9,82</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>12,6</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
           <t>41,96</t>
         </is>
       </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>7,36</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>12,6</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>9,82</t>
-        </is>
-      </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
+          <t>12,79</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>17,88</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>25,89</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
           <t>53,11</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>13,48</t>
-        </is>
-      </c>
-      <c r="M8" s="2" t="inlineStr">
-        <is>
-          <t>25,89</t>
-        </is>
-      </c>
-      <c r="N8" s="2" t="inlineStr">
-        <is>
-          <t>17,88</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
+          <t>14,97; 23,44</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>19,28; 37,65</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>33,9; 47,62</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
           <t>52,89; 80,09</t>
         </is>
       </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>15,85; 24,74</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>33,9; 47,62</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>19,28; 37,65</t>
-        </is>
-      </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
+          <t>5,26; 9,26</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>7,21; 13,37</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>9,44; 17,21</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
           <t>34,54; 51,84</t>
         </is>
       </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>5,59; 9,92</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>9,44; 17,21</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>7,21; 13,37</t>
-        </is>
-      </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
+          <t>10,69; 15,35</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>14,48; 25,49</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>22,09; 30,47</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
           <t>45,91; 61,72</t>
-        </is>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>11,24; 16,35</t>
-        </is>
-      </c>
-      <c r="M9" s="2" t="inlineStr">
-        <is>
-          <t>22,09; 30,47</t>
-        </is>
-      </c>
-      <c r="N9" s="2" t="inlineStr">
-        <is>
-          <t>14,48; 25,49</t>
         </is>
       </c>
     </row>
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>13,47</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>15,75</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>36,05</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
           <t>53,33</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>8,2</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>36,05</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>15,75</t>
-        </is>
-      </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
+          <t>3,68</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>8,12</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>15,59</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
           <t>29,02</t>
         </is>
       </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>3,73</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>15,59</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>8,12</t>
-        </is>
-      </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
+          <t>8,48</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>11,83</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>26,03</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
           <t>41,18</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>6,44</t>
-        </is>
-      </c>
-      <c r="M10" s="2" t="inlineStr">
-        <is>
-          <t>26,03</t>
-        </is>
-      </c>
-      <c r="N10" s="2" t="inlineStr">
-        <is>
-          <t>11,83</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
+          <t>10,61; 16,62</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>11,94; 20,82</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>29,63; 43,85</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
           <t>43,76; 65,72</t>
         </is>
       </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>2,64; 14,25</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>29,63; 43,85</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>11,94; 20,82</t>
-        </is>
-      </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
+          <t>2,73; 4,93</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>5,72; 11,71</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>12,71; 19,26</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
           <t>23,45; 36,36</t>
         </is>
       </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>2,75; 4,96</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>12,71; 19,26</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>5,72; 11,71</t>
-        </is>
-      </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
+          <t>7,04; 10,26</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>9,68; 14,79</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>22,34; 30,83</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
           <t>35,68; 48,28</t>
-        </is>
-      </c>
-      <c r="L11" s="2" t="inlineStr">
-        <is>
-          <t>2,98; 9,12</t>
-        </is>
-      </c>
-      <c r="M11" s="2" t="inlineStr">
-        <is>
-          <t>22,34; 30,83</t>
-        </is>
-      </c>
-      <c r="N11" s="2" t="inlineStr">
-        <is>
-          <t>9,68; 14,79</t>
         </is>
       </c>
     </row>
@@ -1216,62 +1216,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
+          <t>6,09</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>20,44</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>24,43</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
           <t>41,16</t>
         </is>
       </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>5,79</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>24,43</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>20,44</t>
-        </is>
-      </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
+          <t>2,58</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>6,35</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>8,89</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
           <t>30,07</t>
         </is>
       </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>2,66</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>8,89</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>6,35</t>
-        </is>
-      </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
+          <t>4,35</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>12,64</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>16,39</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
           <t>35,39</t>
-        </is>
-      </c>
-      <c r="L12" s="2" t="inlineStr">
-        <is>
-          <t>4,27</t>
-        </is>
-      </c>
-      <c r="M12" s="2" t="inlineStr">
-        <is>
-          <t>16,39</t>
-        </is>
-      </c>
-      <c r="N12" s="2" t="inlineStr">
-        <is>
-          <t>12,64</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
+          <t>4,16; 8,8</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>14,19; 29,75</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>18,36; 34,33</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
           <t>33,87; 51,13</t>
         </is>
       </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>3,91; 8,79</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>18,36; 34,33</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>14,19; 29,75</t>
-        </is>
-      </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
+          <t>1,55; 3,85</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>3,69; 10,79</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>6,52; 12,21</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
           <t>23,87; 37,67</t>
         </is>
       </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>1,62; 4,02</t>
-        </is>
-      </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>6,52; 12,21</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>3,69; 10,79</t>
-        </is>
-      </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
+          <t>3,29; 5,95</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>9,3; 17,07</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>13,18; 21,53</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
           <t>30,27; 41,71</t>
-        </is>
-      </c>
-      <c r="L13" s="2" t="inlineStr">
-        <is>
-          <t>3,16; 5,83</t>
-        </is>
-      </c>
-      <c r="M13" s="2" t="inlineStr">
-        <is>
-          <t>13,18; 21,53</t>
-        </is>
-      </c>
-      <c r="N13" s="2" t="inlineStr">
-        <is>
-          <t>9,3; 17,07</t>
         </is>
       </c>
     </row>
@@ -1356,62 +1356,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
+          <t>3,93</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>9,45</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>13,32</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
           <t>26,5</t>
         </is>
       </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>3,91</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>13,32</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>9,45</t>
-        </is>
-      </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
+          <t>0,72</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>3,72</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>4,4</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
           <t>9,56</t>
         </is>
       </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>0,36</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>4,4</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>3,72</t>
-        </is>
-      </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
+          <t>2,2</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>6,25</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>8,76</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
           <t>17,39</t>
-        </is>
-      </c>
-      <c r="L14" s="2" t="inlineStr">
-        <is>
-          <t>1,48</t>
-        </is>
-      </c>
-      <c r="M14" s="2" t="inlineStr">
-        <is>
-          <t>8,76</t>
-        </is>
-      </c>
-      <c r="N14" s="2" t="inlineStr">
-        <is>
-          <t>6,25</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1424,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
+          <t>2,38; 6,25</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>4,9; 19,91</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>9,0; 20,62</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
           <t>20,55; 33,97</t>
         </is>
       </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>2,37; 6,26</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>9,0; 20,62</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>4,9; 19,91</t>
-        </is>
-      </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
+          <t>0,3; 1,71</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>1,85; 7,17</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>2,39; 7,34</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
           <t>6,78; 13,91</t>
         </is>
       </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>0,03; 0,95</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>2,39; 7,34</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>1,85; 7,17</t>
-        </is>
-      </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
+          <t>1,4; 3,27</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>3,99; 10,99</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>6,53; 12,72</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
           <t>14,57; 21,35</t>
-        </is>
-      </c>
-      <c r="L15" s="2" t="inlineStr">
-        <is>
-          <t>0,52; 2,45</t>
-        </is>
-      </c>
-      <c r="M15" s="2" t="inlineStr">
-        <is>
-          <t>6,53; 12,72</t>
-        </is>
-      </c>
-      <c r="N15" s="2" t="inlineStr">
-        <is>
-          <t>3,99; 10,99</t>
         </is>
       </c>
     </row>
@@ -1496,62 +1496,62 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
+          <t>0,88</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>3,57</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
           <t>8,02</t>
         </is>
       </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>0,86</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>0,15</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>0,97</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
         <is>
           <t>—</t>
         </is>
       </c>
-      <c r="F16" s="2" t="inlineStr">
-        <is>
-          <t>3,57</t>
-        </is>
-      </c>
-      <c r="G16" s="2" t="inlineStr">
+      <c r="J16" s="2" t="inlineStr">
         <is>
           <t>6,97</t>
         </is>
       </c>
-      <c r="H16" s="2" t="inlineStr">
-        <is>
-          <t>0,07</t>
-        </is>
-      </c>
-      <c r="I16" s="2" t="inlineStr">
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>0,44</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>2,04</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
         <is>
           <t>—</t>
         </is>
       </c>
-      <c r="J16" s="2" t="inlineStr">
-        <is>
-          <t>0,97</t>
-        </is>
-      </c>
-      <c r="K16" s="2" t="inlineStr">
+      <c r="N16" s="2" t="inlineStr">
         <is>
           <t>7,37</t>
-        </is>
-      </c>
-      <c r="L16" s="2" t="inlineStr">
-        <is>
-          <t>0,38</t>
-        </is>
-      </c>
-      <c r="M16" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="N16" s="2" t="inlineStr">
-        <is>
-          <t>2,04</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1564,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
+          <t>0,24; 2,05</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>1,3; 7,9</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
           <t>5,17; 12,26</t>
         </is>
       </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>0,24; 1,98</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>0,02; 0,79</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>0,16; 3,06</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="F17" s="2" t="inlineStr">
-        <is>
-          <t>1,3; 7,9</t>
-        </is>
-      </c>
-      <c r="G17" s="2" t="inlineStr">
+      <c r="J17" s="2" t="inlineStr">
         <is>
           <t>4,35; 10,92</t>
         </is>
       </c>
-      <c r="H17" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 0,32</t>
-        </is>
-      </c>
-      <c r="I17" s="2" t="inlineStr">
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>0,18; 1,01</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>1,05; 4,04</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="J17" s="2" t="inlineStr">
-        <is>
-          <t>0,16; 3,06</t>
-        </is>
-      </c>
-      <c r="K17" s="2" t="inlineStr">
+      <c r="N17" s="2" t="inlineStr">
         <is>
           <t>5,34; 10,23</t>
-        </is>
-      </c>
-      <c r="L17" s="2" t="inlineStr">
-        <is>
-          <t>0,15; 0,85</t>
-        </is>
-      </c>
-      <c r="M17" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N17" s="2" t="inlineStr">
-        <is>
-          <t>1,05; 4,04</t>
         </is>
       </c>
     </row>
@@ -1636,62 +1636,62 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
+          <t>14,13</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>23,66</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>37,79</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
           <t>49,26</t>
         </is>
       </c>
-      <c r="D18" s="2" t="inlineStr">
-        <is>
-          <t>12,49</t>
-        </is>
-      </c>
-      <c r="E18" s="2" t="inlineStr">
-        <is>
-          <t>37,79</t>
-        </is>
-      </c>
-      <c r="F18" s="2" t="inlineStr">
-        <is>
-          <t>23,66</t>
-        </is>
-      </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
+          <t>4,4</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>9,95</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>16,7</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
           <t>29,85</t>
         </is>
       </c>
-      <c r="H18" s="2" t="inlineStr">
-        <is>
-          <t>3,85</t>
-        </is>
-      </c>
-      <c r="I18" s="2" t="inlineStr">
-        <is>
-          <t>16,7</t>
-        </is>
-      </c>
-      <c r="J18" s="2" t="inlineStr">
-        <is>
-          <t>9,95</t>
-        </is>
-      </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
+          <t>9,1</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>16,45</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>27,09</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
           <t>39,09</t>
-        </is>
-      </c>
-      <c r="L18" s="2" t="inlineStr">
-        <is>
-          <t>8,04</t>
-        </is>
-      </c>
-      <c r="M18" s="2" t="inlineStr">
-        <is>
-          <t>27,09</t>
-        </is>
-      </c>
-      <c r="N18" s="2" t="inlineStr">
-        <is>
-          <t>16,45</t>
         </is>
       </c>
     </row>
@@ -1704,62 +1704,62 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
+          <t>12,41; 16,01</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>20,9; 27,09</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>34,9; 41,82</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
           <t>45,22; 53,83</t>
         </is>
       </c>
-      <c r="D19" s="2" t="inlineStr">
-        <is>
-          <t>8,58; 14,88</t>
-        </is>
-      </c>
-      <c r="E19" s="2" t="inlineStr">
-        <is>
-          <t>34,9; 41,82</t>
-        </is>
-      </c>
-      <c r="F19" s="2" t="inlineStr">
-        <is>
-          <t>20,9; 27,09</t>
-        </is>
-      </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
+          <t>3,7; 5,22</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>8,62; 11,83</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>14,89; 18,98</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
           <t>26,9; 33,24</t>
         </is>
       </c>
-      <c r="H19" s="2" t="inlineStr">
-        <is>
-          <t>2,76; 4,7</t>
-        </is>
-      </c>
-      <c r="I19" s="2" t="inlineStr">
-        <is>
-          <t>14,89; 18,98</t>
-        </is>
-      </c>
-      <c r="J19" s="2" t="inlineStr">
-        <is>
-          <t>8,62; 11,83</t>
-        </is>
-      </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
+          <t>8,24; 10,03</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>14,8; 18,22</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>25,23; 29,15</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
           <t>36,61; 41,91</t>
-        </is>
-      </c>
-      <c r="L19" s="2" t="inlineStr">
-        <is>
-          <t>6,51; 9,29</t>
-        </is>
-      </c>
-      <c r="M19" s="2" t="inlineStr">
-        <is>
-          <t>25,23; 29,15</t>
-        </is>
-      </c>
-      <c r="N19" s="2" t="inlineStr">
-        <is>
-          <t>14,8; 18,22</t>
         </is>
       </c>
     </row>
